--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_53__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_53__Reeval_LHS_Modell_1.1.xlsx
@@ -5879,130 +5879,130 @@
                   <c:v>16.09046363830566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.095455169677734</c:v>
+                  <c:v>9.095454216003418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.10392951965332</c:v>
+                  <c:v>21.10392570495605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.419921875</c:v>
+                  <c:v>20.41991806030273</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23.21790313720703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.6901798248291</c:v>
+                  <c:v>21.69018173217773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.22245407104492</c:v>
+                  <c:v>20.22245216369629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.712333679199219</c:v>
+                  <c:v>9.712331771850586</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>58.39239501953125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.32112884521484</c:v>
+                  <c:v>22.32112503051758</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.80198287963867</c:v>
+                  <c:v>11.80197906494141</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.81949424743652</c:v>
+                  <c:v>18.81949615478516</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>16.8843822479248</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.24856948852539</c:v>
+                  <c:v>11.24857521057129</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>22.14925765991211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.76945114135742</c:v>
+                  <c:v>17.76945495605469</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.56169128417969</c:v>
+                  <c:v>19.56168746948242</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.05758094787598</c:v>
+                  <c:v>19.05757713317871</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20.85038566589355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.51251792907715</c:v>
+                  <c:v>21.51250648498535</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.89619445800781</c:v>
+                  <c:v>20.89619064331055</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.49786758422852</c:v>
+                  <c:v>17.49787139892578</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.82383346557617</c:v>
+                  <c:v>10.82383632659912</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.95886039733887</c:v>
+                  <c:v>20.9588623046875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.78318405151367</c:v>
+                  <c:v>17.78318023681641</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>18.36846160888672</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.6887149810791</c:v>
+                  <c:v>20.68871116638184</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.01895141601562</c:v>
+                  <c:v>18.01894950866699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.72740650177002</c:v>
+                  <c:v>5.72739839553833</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>14.46468734741211</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.7477912902832</c:v>
+                  <c:v>22.7477855682373</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.902707099914551</c:v>
+                  <c:v>9.902704238891602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.74548149108887</c:v>
+                  <c:v>20.74547576904297</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>14.8066520690918</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.15189170837402</c:v>
+                  <c:v>11.15189647674561</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.43134069442749</c:v>
+                  <c:v>5.431347370147705</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>22.32535934448242</c:v>
+                  <c:v>22.32535743713379</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15.8587818145752</c:v>
+                  <c:v>15.85878276824951</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>21.51359558105469</c:v>
+                  <c:v>21.51360130310059</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>22.47263336181641</c:v>
+                  <c:v>22.47263717651367</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>18.07362174987793</c:v>
+                  <c:v>18.0736198425293</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.47368621826172</c:v>
+                  <c:v>20.47368240356445</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.83150672912598</c:v>
+                  <c:v>20.83150863647461</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>21.12395286560059</c:v>
@@ -6014,19 +6014,19 @@
                   <c:v>21.42246627807617</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>15.04441452026367</c:v>
+                  <c:v>15.04441547393799</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>52.99936676025391</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>40.47675323486328</c:v>
+                  <c:v>40.47674179077148</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>21.0828914642334</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>19.63640975952148</c:v>
+                  <c:v>19.63641166687012</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>18.91880035400391</c:v>
@@ -6035,85 +6035,85 @@
                   <c:v>23.24039077758789</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.42841243743896</c:v>
+                  <c:v>13.42841911315918</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>16.7690258026123</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.40424156188965</c:v>
+                  <c:v>13.40423393249512</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.0891284942627</c:v>
+                  <c:v>16.08912658691406</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.084568977355957</c:v>
+                  <c:v>4.084577083587646</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>18.04632759094238</c:v>
+                  <c:v>18.04632568359375</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.48537063598633</c:v>
+                  <c:v>21.48537254333496</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>23.23726844787598</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>10.38072395324707</c:v>
+                  <c:v>10.38072681427002</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>19.87924957275391</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>19.96273994445801</c:v>
+                  <c:v>19.96273231506348</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>49.74814987182617</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>20.7173957824707</c:v>
+                  <c:v>20.71739196777344</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20.3399600982666</c:v>
+                  <c:v>20.33995628356934</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>20.28423118591309</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>22.76507186889648</c:v>
+                  <c:v>22.76506614685059</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.93189430236816</c:v>
+                  <c:v>19.93188858032227</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.746898651123047</c:v>
+                  <c:v>6.746900081634521</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>12.05015659332275</c:v>
+                  <c:v>12.05016136169434</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>22.79654693603516</c:v>
+                  <c:v>22.79654121398926</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>20.12385368347168</c:v>
+                  <c:v>20.12385559082031</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>21.6097297668457</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.35047721862793</c:v>
+                  <c:v>12.35047435760498</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>56.936279296875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.49410629272461</c:v>
+                  <c:v>16.49410057067871</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.88760185241699</c:v>
+                  <c:v>20.88759231567383</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>22.95529365539551</c:v>
+                  <c:v>22.95529937744141</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>19.32842063903809</c:v>
@@ -6122,34 +6122,34 @@
                   <c:v>23.41524314880371</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>18.31728553771973</c:v>
+                  <c:v>18.31727600097656</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>20.54999923706055</c:v>
+                  <c:v>20.54999732971191</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20.52995872497559</c:v>
+                  <c:v>20.52996063232422</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>65.79001617431641</c:v>
+                  <c:v>65.79003143310547</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>14.73801517486572</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.80251502990723</c:v>
+                  <c:v>12.80251979827881</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>20.89852333068848</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20.04645919799805</c:v>
+                  <c:v>20.04646110534668</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.92052173614502</c:v>
+                  <c:v>13.92052364349365</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18.5504207611084</c:v>
+                  <c:v>18.5504150390625</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>21.01711082458496</c:v>
@@ -6161,10 +6161,10 @@
                   <c:v>18.17445945739746</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>18.16790390014648</c:v>
+                  <c:v>18.16790199279785</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>21.22666549682617</c:v>
+                  <c:v>21.22665977478027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>9.095455169677734</v>
+        <v>9.095454216003418</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.10392951965332</v>
+        <v>21.10392570495605</v>
       </c>
       <c r="G5">
         <v>78</v>
@@ -6987,7 +6987,7 @@
         <v>47.7145</v>
       </c>
       <c r="F6">
-        <v>20.419921875</v>
+        <v>20.41991806030273</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.6901798248291</v>
+        <v>21.69018173217773</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.22245407104492</v>
+        <v>20.22245216369629</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.712333679199219</v>
+        <v>9.712331771850586</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.32112884521484</v>
+        <v>22.32112503051758</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>11.80198287963867</v>
+        <v>11.80197906494141</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.81949424743652</v>
+        <v>18.81949615478516</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>11.24856948852539</v>
+        <v>11.24857521057129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.76945114135742</v>
+        <v>17.76945495605469</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>19.56169128417969</v>
+        <v>19.56168746948242</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>19.05758094787598</v>
+        <v>19.05757713317871</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.51251792907715</v>
+        <v>21.51250648498535</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.89619445800781</v>
+        <v>20.89619064331055</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.49786758422852</v>
+        <v>17.49787139892578</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>10.82383346557617</v>
+        <v>10.82383632659912</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>20.95886039733887</v>
+        <v>20.9588623046875</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>17.78318405151367</v>
+        <v>17.78318023681641</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>20.6887149810791</v>
+        <v>20.68871116638184</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>18.01895141601562</v>
+        <v>18.01894950866699</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>5.72740650177002</v>
+        <v>5.72739839553833</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>22.7477912902832</v>
+        <v>22.7477855682373</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>9.902707099914551</v>
+        <v>9.902704238891602</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>20.74548149108887</v>
+        <v>20.74547576904297</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>11.15189170837402</v>
+        <v>11.15189647674561</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>5.43134069442749</v>
+        <v>5.431347370147705</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>22.32535934448242</v>
+        <v>22.32535743713379</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>15.8587818145752</v>
+        <v>15.85878276824951</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>21.51359558105469</v>
+        <v>21.51360130310059</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>22.47263336181641</v>
+        <v>22.47263717651367</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>18.07362174987793</v>
+        <v>18.0736198425293</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>20.47368621826172</v>
+        <v>20.47368240356445</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>20.83150672912598</v>
+        <v>20.83150863647461</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>15.04441452026367</v>
+        <v>15.04441547393799</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>40.47675323486328</v>
+        <v>40.47674179077148</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>19.63640975952148</v>
+        <v>19.63641166687012</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>13.42841243743896</v>
+        <v>13.42841911315918</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>13.40424156188965</v>
+        <v>13.40423393249512</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>16.0891284942627</v>
+        <v>16.08912658691406</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>4.084568977355957</v>
+        <v>4.084577083587646</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>18.04632759094238</v>
+        <v>18.04632568359375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>21.48537063598633</v>
+        <v>21.48537254333496</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>10.38072395324707</v>
+        <v>10.38072681427002</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>19.96273994445801</v>
+        <v>19.96273231506348</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>20.7173957824707</v>
+        <v>20.71739196777344</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>20.3399600982666</v>
+        <v>20.33995628356934</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>22.76507186889648</v>
+        <v>22.76506614685059</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>19.93189430236816</v>
+        <v>19.93188858032227</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>6.746898651123047</v>
+        <v>6.746900081634521</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>12.05015659332275</v>
+        <v>12.05016136169434</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>22.79654693603516</v>
+        <v>22.79654121398926</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20.12385368347168</v>
+        <v>20.12385559082031</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>12.35047721862793</v>
+        <v>12.35047435760498</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>16.49410629272461</v>
+        <v>16.49410057067871</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>20.88760185241699</v>
+        <v>20.88759231567383</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>22.95529365539551</v>
+        <v>22.95529937744141</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>18.31728553771973</v>
+        <v>18.31727600097656</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>20.54999923706055</v>
+        <v>20.54999732971191</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>20.52995872497559</v>
+        <v>20.52996063232422</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>65.79001617431641</v>
+        <v>65.79003143310547</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>12.80251502990723</v>
+        <v>12.80251979827881</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>20.04645919799805</v>
+        <v>20.04646110534668</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>13.92052173614502</v>
+        <v>13.92052364349365</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>18.5504207611084</v>
+        <v>18.5504150390625</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>18.16790390014648</v>
+        <v>18.16790199279785</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>21.22666549682617</v>
+        <v>21.22665977478027</v>
       </c>
     </row>
     <row r="100" spans="1:6">
